--- a/data/kongepanel_upd_oppdatert_mars.xlsx
+++ b/data/kongepanel_upd_oppdatert_mars.xlsx
@@ -14,16 +14,171 @@
     <sheet name="Fame_ekstradata" sheetId="9" r:id="rId5"/>
     <sheet name="kopiert fra PPR" sheetId="10" r:id="rId6"/>
     <sheet name="B" sheetId="20" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nore, Camilla</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Name : NB.QUA_DPY_PCPI
+Beskrivelse : Konsumprisindeks, KPI. 4. Kvartalsendringer. Norges Bank anslag
+Description : Consumer price index, CPI. 4 quarter change. Norges Bank forecast
+Database : FORECAST
+Source : Norges Bank
+Country : Norway
+Seasonal : Unadjusted
+Observed : AVERAGED
+Category 1 : Forecasts
+Category 2 : Norges Bank
+Category 3 : Prices
+Category 4 : 
+Category 5 : 
+Category 6 : 
+Category 7 : 
+FirstPeriod : 31.03.1995 00:00:00
+LastPeriod : 31.12.2018 00:00:00
+Forecast : False
+Vintage : False
+Vintage_Value : 
+Utilisation : 
+Updated : 11.01.2016 15:13:26
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Name : NB.QUA_DPY_PCPIJAE
+Beskrivelse : Konsumprisindeks justert for avgiftsendringer og uten energivarer, KPI-JAE. 4 kvartalsendringer. Norges Bank anslag
+Description : Consumer Price Index Adjusted for Taxes and Energy Prices, CPI-ATE. 4 quarter change. Norges Bank forecast
+Database : FORECAST
+Source : Norges Bank
+Country : Norway
+Seasonal : Unadjusted
+Observed : AVERAGED
+Category 1 : Forecasts
+Category 2 : Norges Bank
+Category 3 : Prices
+Category 4 : 
+Category 5 : 
+Category 6 : 
+Category 7 : 
+FirstPeriod : 31.03.1995 00:00:00
+LastPeriod : 31.12.2018 00:00:00
+Forecast : False
+Vintage : False
+Vintage_Value : 
+Utilisation : 
+Updated : 11.01.2016 15:13:26
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Name : NB.QSA_GAPNB_Y
+Beskrivelse : Produksjonsgap. Realtid. Norges Bank anslag
+Description : Production gap. Real time. Norges Bank forecast
+Database : FORECAST
+Source : Norges Bank
+Country : Norway
+Seasonal : Seasonal
+Observed : AVERAGED
+Category 1 : Forecasts
+Category 2 : Norges Bank
+Category 3 : Real economy
+Category 4 : 
+Category 5 : 
+Category 6 : 
+Category 7 : 
+FirstPeriod : 31.03.1994 00:00:00
+LastPeriod : 31.12.2018 00:00:00
+Forecast : False
+Vintage : False
+Vintage_Value : 
+Utilisation : 
+Updated : 11.01.2016 15:13:24
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Name : NB.QUA_RNFOLIO
+Beskrivelse : Styringsrenten. Norges Bank anslag
+Description : Key policy rate Norges Bank forecast
+Database : FORECAST
+Source : Norges Bank
+Country : Norway
+Seasonal : Unadjusted
+Observed : AVERAGED
+Category 1 : Forecasts
+Category 2 : Norges Bank
+Category 3 : Interest rates
+Category 4 : 
+Category 5 : 
+Category 6 : 
+Category 7 : 
+FirstPeriod : 31.03.1994 00:00:00
+LastPeriod : 31.12.2018 00:00:00
+Forecast : False
+Vintage : False
+Vintage_Value : 
+Utilisation : 
+Updated : 11.01.2016 15:13:30
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="506">
   <si>
     <t>t</t>
   </si>
@@ -820,9 +975,6 @@
     <t>Quarters\Reports</t>
   </si>
   <si>
-    <t>Rødt indikerer første prognose i banen</t>
-  </si>
-  <si>
     <t>cpi06q2</t>
   </si>
   <si>
@@ -967,9 +1119,6 @@
     <t>PPR2_14xe</t>
   </si>
   <si>
-    <t>OBS: I kongepanelet rapporteres heretter KPIXE, ikke KPIJAE</t>
-  </si>
-  <si>
     <t>OBS: Forskjellige alternativer</t>
   </si>
   <si>
@@ -1408,9 +1557,6 @@
     <t>PPR2_15xe</t>
   </si>
   <si>
-    <t>OBS: I kongepanelet rapporteres heretter KPIJAE, ikke KPIxe</t>
-  </si>
-  <si>
     <t>i14q3</t>
   </si>
   <si>
@@ -1481,18 +1627,88 @@
   </si>
   <si>
     <t>PPR1_16xe</t>
+  </si>
+  <si>
+    <t>Legend Name</t>
+  </si>
+  <si>
+    <t>Konsumprisindeks, KPI. 4. Kvartalsendringer. Norges Bank anslag</t>
+  </si>
+  <si>
+    <t>Konsumprisindeks justert for avgiftsendringer og uten energivarer, KPI-JAE. 4 kvartalsendringer. Norges Bank anslag</t>
+  </si>
+  <si>
+    <t>Produksjonsgap. Realtid. Norges Bank anslag</t>
+  </si>
+  <si>
+    <t>Styringsrenten. Norges Bank anslag</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>NB.QUA_DPY_PCPIJAE</t>
+  </si>
+  <si>
+    <t>Updated</t>
+  </si>
+  <si>
+    <t>11.01.2016 15:13:26</t>
+  </si>
+  <si>
+    <t>11.01.2016 15:13:24</t>
+  </si>
+  <si>
+    <t>11.01.2016 15:13:30</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>01.01.1995</t>
+  </si>
+  <si>
+    <t>01.01.1994</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>DATEOF(LASTVALUE(NB.QUA_DPY_PCPI),*,CONTAIN,ENDING)</t>
+  </si>
+  <si>
+    <t>DATEOF(LASTVALUE(NB.QUA_DPY_PCPIJAE),*,CONTAIN,ENDING)</t>
+  </si>
+  <si>
+    <t>DATEOF(LASTVALUE(NB.QSA_GAPNB_Y),*,CONTAIN,ENDING)</t>
+  </si>
+  <si>
+    <t>DATEOF(LASTVALUE(NB.QUA_RNFOLIO),*,CONTAIN,ENDING)</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>QUARTERLY</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>IGNORE ON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1588,8 +1804,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1867,17 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1659,7 +1906,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1681,13 +1928,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1732,13 +1981,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="16" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="17"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="9" borderId="0" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="0" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="9" borderId="0" xfId="17" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="16" fillId="8" borderId="0" xfId="16" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="16"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Dato" xfId="8"/>
     <cellStyle name="Forside overskrift 1" xfId="9"/>
@@ -1749,15 +2010,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="11"/>
     <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 3 2" xfId="17"/>
+    <cellStyle name="Normal 3 2" xfId="19"/>
     <cellStyle name="Normal 4" xfId="12"/>
-    <cellStyle name="Normal 4 2" xfId="18"/>
+    <cellStyle name="Normal 4 2" xfId="20"/>
     <cellStyle name="Normal 5" xfId="13"/>
-    <cellStyle name="Normal 5 2" xfId="19"/>
+    <cellStyle name="Normal 5 2" xfId="21"/>
     <cellStyle name="Normal 6" xfId="3"/>
-    <cellStyle name="Normal 7" xfId="16"/>
+    <cellStyle name="Normal 7" xfId="18"/>
     <cellStyle name="Normal 8" xfId="14"/>
-    <cellStyle name="Normal 8 2" xfId="20"/>
+    <cellStyle name="Normal 8 2" xfId="22"/>
     <cellStyle name="Rad" xfId="15"/>
     <cellStyle name="Tabelltittel" xfId="4"/>
   </cellStyles>
@@ -2078,11 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FM186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:FM68"/>
+    <sheetView tabSelected="1" topLeftCell="DM36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="DN68" sqref="DN68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2186,25 +2444,25 @@
         <v>29</v>
       </c>
       <c r="AE1" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="AF1" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="AG1" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="AG1" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="AH1" s="24" t="s">
-        <v>448</v>
-      </c>
       <c r="AI1" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="AJ1" s="24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="AK1" s="24" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="AL1" t="s">
         <v>30</v>
@@ -2294,25 +2552,25 @@
         <v>58</v>
       </c>
       <c r="BO1" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="BP1" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="BQ1" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="BP1" s="24" t="s">
+      <c r="BR1" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="BQ1" s="24" t="s">
-        <v>451</v>
-      </c>
-      <c r="BR1" s="24" t="s">
-        <v>452</v>
-      </c>
       <c r="BS1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="BT1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="BU1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="BV1" t="s">
         <v>59</v>
@@ -2396,25 +2654,25 @@
         <v>85</v>
       </c>
       <c r="CW1" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="CX1" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="CY1" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="CX1" s="24" t="s">
+      <c r="CZ1" s="24" t="s">
         <v>454</v>
       </c>
-      <c r="CY1" s="24" t="s">
-        <v>455</v>
-      </c>
-      <c r="CZ1" s="24" t="s">
-        <v>456</v>
-      </c>
       <c r="DA1" s="24" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DB1" s="24" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="DC1" s="24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="DD1" t="s">
         <v>86</v>
@@ -2441,88 +2699,88 @@
         <v>93</v>
       </c>
       <c r="DL1" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="DM1" t="s">
         <v>293</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DN1" t="s">
         <v>294</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DO1" t="s">
         <v>295</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DP1" t="s">
         <v>296</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DQ1" t="s">
         <v>297</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DR1" t="s">
         <v>298</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DS1" t="s">
         <v>299</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DT1" t="s">
         <v>300</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DU1" t="s">
         <v>301</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DV1" t="s">
         <v>302</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DW1" t="s">
         <v>303</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DX1" t="s">
         <v>304</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DY1" t="s">
         <v>305</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DZ1" t="s">
         <v>306</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EA1" t="s">
         <v>307</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EB1" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="EB1" s="18" t="s">
+      <c r="EC1" t="s">
         <v>309</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="ED1" t="s">
         <v>310</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="EE1" t="s">
         <v>311</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EF1" t="s">
         <v>312</v>
       </c>
-      <c r="EF1" t="s">
-        <v>313</v>
-      </c>
       <c r="EG1" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="EH1" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="EI1" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="EH1" s="24" t="s">
+      <c r="EJ1" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="EI1" s="24" t="s">
-        <v>459</v>
-      </c>
-      <c r="EJ1" s="24" t="s">
-        <v>460</v>
-      </c>
       <c r="EK1" s="24" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="EL1" s="24" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="EM1" s="24" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="EN1" s="24"/>
       <c r="EO1" t="s">
@@ -3168,9 +3426,7 @@
       <c r="B9" s="23">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>265</v>
-      </c>
+      <c r="I9" s="24"/>
       <c r="AL9" s="23">
         <v>0.7</v>
       </c>
@@ -10659,7 +10915,7 @@
       <c r="BR48" s="34">
         <v>-1.05</v>
       </c>
-      <c r="BS48" s="43">
+      <c r="BS48" s="49">
         <v>-1.05</v>
       </c>
       <c r="CN48">
@@ -10745,7 +11001,7 @@
       <c r="EJ48" s="34">
         <v>2.4</v>
       </c>
-      <c r="EK48" s="44">
+      <c r="EK48" s="54">
         <v>2.84</v>
       </c>
       <c r="EL48" s="34"/>
@@ -10861,7 +11117,7 @@
       <c r="BR49" s="34">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="BS49" s="43">
+      <c r="BS49" s="49">
         <v>-1.1399999999999999</v>
       </c>
       <c r="BT49" s="6">
@@ -10952,7 +11208,7 @@
       <c r="EJ49" s="34">
         <v>2.39</v>
       </c>
-      <c r="EK49" s="44">
+      <c r="EK49" s="54">
         <v>2.96</v>
       </c>
       <c r="EL49" s="6">
@@ -11054,7 +11310,7 @@
       <c r="BR50" s="34">
         <v>-1.33</v>
       </c>
-      <c r="BS50" s="43">
+      <c r="BS50" s="49">
         <v>-1.37</v>
       </c>
       <c r="BT50" s="6">
@@ -11099,7 +11355,7 @@
       <c r="DB50" s="6">
         <v>2.6</v>
       </c>
-      <c r="DC50" s="41">
+      <c r="DC50" s="42">
         <v>3.16</v>
       </c>
       <c r="EA50">
@@ -11132,13 +11388,13 @@
       <c r="EJ50" s="34">
         <v>2.31</v>
       </c>
-      <c r="EK50" s="44">
+      <c r="EK50" s="54">
         <v>2.93</v>
       </c>
       <c r="EL50" s="6">
         <v>3.03</v>
       </c>
-      <c r="EM50" s="42">
+      <c r="EM50" s="43">
         <v>3.3</v>
       </c>
       <c r="EO50">
@@ -11236,7 +11492,7 @@
       <c r="BR51" s="34">
         <v>-1.36</v>
       </c>
-      <c r="BS51" s="43">
+      <c r="BS51" s="49">
         <v>-1.45</v>
       </c>
       <c r="BT51" s="6">
@@ -11281,7 +11537,7 @@
       <c r="DB51" s="6">
         <v>2.8</v>
       </c>
-      <c r="DC51" s="41">
+      <c r="DC51" s="42">
         <v>3.24</v>
       </c>
       <c r="EA51">
@@ -11314,13 +11570,13 @@
       <c r="EJ51" s="34">
         <v>2.16</v>
       </c>
-      <c r="EK51" s="44">
+      <c r="EK51" s="54">
         <v>2.76</v>
       </c>
       <c r="EL51" s="6">
         <v>3.04</v>
       </c>
-      <c r="EM51" s="42">
+      <c r="EM51" s="43">
         <v>3.21</v>
       </c>
       <c r="ES51" s="4"/>
@@ -11407,7 +11663,7 @@
       <c r="BR52" s="34">
         <v>-1.32</v>
       </c>
-      <c r="BS52" s="43">
+      <c r="BS52" s="49">
         <v>-1.54</v>
       </c>
       <c r="BT52" s="6">
@@ -11452,7 +11708,7 @@
       <c r="DB52" s="6">
         <v>2.79</v>
       </c>
-      <c r="DC52" s="41">
+      <c r="DC52" s="42">
         <v>3.2</v>
       </c>
       <c r="EA52">
@@ -11485,13 +11741,13 @@
       <c r="EJ52" s="34">
         <v>2.08</v>
       </c>
-      <c r="EK52" s="44">
+      <c r="EK52" s="54">
         <v>2.56</v>
       </c>
       <c r="EL52" s="6">
         <v>2.86</v>
       </c>
-      <c r="EM52" s="42">
+      <c r="EM52" s="43">
         <v>2.98</v>
       </c>
       <c r="ES52" s="4"/>
@@ -11578,7 +11834,7 @@
       <c r="BR53" s="34">
         <v>-1.3</v>
       </c>
-      <c r="BS53" s="43">
+      <c r="BS53" s="49">
         <v>-1.57</v>
       </c>
       <c r="BT53" s="6">
@@ -11623,7 +11879,7 @@
       <c r="DB53" s="6">
         <v>2.83</v>
       </c>
-      <c r="DC53" s="41">
+      <c r="DC53" s="42">
         <v>2.97</v>
       </c>
       <c r="EA53">
@@ -11656,13 +11912,13 @@
       <c r="EJ53" s="34">
         <v>1.99</v>
       </c>
-      <c r="EK53" s="44">
+      <c r="EK53" s="54">
         <v>2.61</v>
       </c>
       <c r="EL53" s="6">
         <v>2.85</v>
       </c>
-      <c r="EM53" s="42">
+      <c r="EM53" s="43">
         <v>3.05</v>
       </c>
       <c r="ES53" s="4"/>
@@ -11725,7 +11981,7 @@
       <c r="BR54" s="34">
         <v>-1.22</v>
       </c>
-      <c r="BS54" s="43">
+      <c r="BS54" s="49">
         <v>-1.54</v>
       </c>
       <c r="BT54" s="6">
@@ -11758,7 +12014,7 @@
       <c r="DB54" s="6">
         <v>2.75</v>
       </c>
-      <c r="DC54" s="41">
+      <c r="DC54" s="42">
         <v>2.46</v>
       </c>
       <c r="EE54">
@@ -11779,13 +12035,13 @@
       <c r="EJ54" s="34">
         <v>1.97</v>
       </c>
-      <c r="EK54" s="44">
+      <c r="EK54" s="54">
         <v>2.41</v>
       </c>
       <c r="EL54" s="6">
         <v>2.67</v>
       </c>
-      <c r="EM54" s="42">
+      <c r="EM54" s="43">
         <v>2.92</v>
       </c>
       <c r="EP54" s="36"/>
@@ -11849,7 +12105,7 @@
       <c r="BR55" s="34">
         <v>-1.17</v>
       </c>
-      <c r="BS55" s="43">
+      <c r="BS55" s="49">
         <v>-1.54</v>
       </c>
       <c r="BT55" s="6">
@@ -11882,7 +12138,7 @@
       <c r="DB55" s="6">
         <v>2.5299999999999998</v>
       </c>
-      <c r="DC55" s="41">
+      <c r="DC55" s="42">
         <v>2.2999999999999998</v>
       </c>
       <c r="EE55">
@@ -11903,13 +12159,13 @@
       <c r="EJ55" s="34">
         <v>1.97</v>
       </c>
-      <c r="EK55" s="44">
+      <c r="EK55" s="54">
         <v>2.3199999999999998</v>
       </c>
       <c r="EL55" s="6">
         <v>2.56</v>
       </c>
-      <c r="EM55" s="42">
+      <c r="EM55" s="43">
         <v>2.83</v>
       </c>
       <c r="EP55" s="36"/>
@@ -11973,7 +12229,7 @@
       <c r="BR56" s="34">
         <v>-1.06</v>
       </c>
-      <c r="BS56" s="43">
+      <c r="BS56" s="49">
         <v>-1.47</v>
       </c>
       <c r="BT56" s="6">
@@ -12006,7 +12262,7 @@
       <c r="DB56" s="6">
         <v>2.5</v>
       </c>
-      <c r="DC56" s="41">
+      <c r="DC56" s="42">
         <v>2.2799999999999998</v>
       </c>
       <c r="EE56">
@@ -12027,13 +12283,13 @@
       <c r="EJ56" s="34">
         <v>1.98</v>
       </c>
-      <c r="EK56" s="44">
+      <c r="EK56" s="54">
         <v>2.23</v>
       </c>
       <c r="EL56" s="6">
         <v>2.44</v>
       </c>
-      <c r="EM56" s="42">
+      <c r="EM56" s="43">
         <v>2.82</v>
       </c>
       <c r="EV56" s="6"/>
@@ -12095,7 +12351,7 @@
       <c r="BR57" s="34">
         <v>-0.9</v>
       </c>
-      <c r="BS57" s="43">
+      <c r="BS57" s="49">
         <v>-1.34</v>
       </c>
       <c r="BT57" s="6">
@@ -12128,7 +12384,7 @@
       <c r="DB57" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="DC57" s="41">
+      <c r="DC57" s="42">
         <v>2.25</v>
       </c>
       <c r="EE57">
@@ -12149,13 +12405,13 @@
       <c r="EJ57" s="34">
         <v>2</v>
       </c>
-      <c r="EK57" s="44">
+      <c r="EK57" s="54">
         <v>2.15</v>
       </c>
       <c r="EL57" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="EM57" s="42">
+      <c r="EM57" s="43">
         <v>2.77</v>
       </c>
       <c r="EV57" s="6"/>
@@ -12255,7 +12511,7 @@
       <c r="BR58" s="34">
         <v>-0.76</v>
       </c>
-      <c r="BS58" s="43">
+      <c r="BS58" s="49">
         <v>-1.26</v>
       </c>
       <c r="BT58" s="6">
@@ -12305,7 +12561,7 @@
       <c r="DB58" s="6">
         <v>2.19</v>
       </c>
-      <c r="DC58" s="41">
+      <c r="DC58" s="42">
         <v>2.27</v>
       </c>
       <c r="DD58" s="16"/>
@@ -12316,9 +12572,7 @@
       <c r="DI58" s="16"/>
       <c r="DJ58" s="16"/>
       <c r="DK58" s="16"/>
-      <c r="DL58" s="17" t="s">
-        <v>314</v>
-      </c>
+      <c r="DL58" s="17"/>
       <c r="DM58" s="16"/>
       <c r="DN58" s="16"/>
       <c r="DO58" s="16"/>
@@ -12334,9 +12588,7 @@
       <c r="DY58" s="16"/>
       <c r="DZ58" s="16"/>
       <c r="EA58" s="16"/>
-      <c r="EB58" s="17" t="s">
-        <v>461</v>
-      </c>
+      <c r="EB58" s="17"/>
       <c r="EC58" s="16"/>
       <c r="ED58" s="16"/>
       <c r="EE58" s="16"/>
@@ -12349,15 +12601,24 @@
       <c r="EJ58" s="34">
         <v>2.04</v>
       </c>
-      <c r="EK58" s="44">
+      <c r="EK58" s="54">
         <v>2.0699999999999998</v>
       </c>
       <c r="EL58" s="6">
         <v>2.19</v>
       </c>
-      <c r="EM58" s="42">
+      <c r="EM58" s="43">
         <v>2.61</v>
       </c>
+      <c r="EO58" s="16"/>
+      <c r="FB58"/>
+      <c r="FC58"/>
+      <c r="FD58"/>
+      <c r="FE58"/>
+      <c r="FF58"/>
+      <c r="FG58"/>
+      <c r="FH58"/>
+      <c r="FI58"/>
     </row>
     <row r="59" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A59" s="38">
@@ -12388,7 +12649,7 @@
       <c r="BR59" s="34">
         <v>-0.64</v>
       </c>
-      <c r="BS59" s="43">
+      <c r="BS59" s="49">
         <v>-1.1200000000000001</v>
       </c>
       <c r="BT59" s="6">
@@ -12411,7 +12672,7 @@
       <c r="DB59" s="6">
         <v>2.06</v>
       </c>
-      <c r="DC59" s="41">
+      <c r="DC59" s="42">
         <v>2.14</v>
       </c>
       <c r="EG59" s="24"/>
@@ -12422,15 +12683,25 @@
       <c r="EJ59" s="34">
         <v>2.09</v>
       </c>
-      <c r="EK59" s="44">
+      <c r="EK59" s="54">
         <v>2</v>
       </c>
       <c r="EL59" s="6">
         <v>2.06</v>
       </c>
-      <c r="EM59" s="42">
+      <c r="EM59" s="43">
         <v>2.5099999999999998</v>
       </c>
+      <c r="EY59" s="3"/>
+      <c r="EZ59" s="3"/>
+      <c r="FB59"/>
+      <c r="FC59"/>
+      <c r="FD59"/>
+      <c r="FE59"/>
+      <c r="FF59"/>
+      <c r="FG59"/>
+      <c r="FH59"/>
+      <c r="FI59"/>
     </row>
     <row r="60" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A60" s="38">
@@ -12461,7 +12732,7 @@
       <c r="BR60" s="34">
         <v>-0.5</v>
       </c>
-      <c r="BS60" s="43">
+      <c r="BS60" s="49">
         <v>-1.04</v>
       </c>
       <c r="BT60" s="6">
@@ -12484,7 +12755,7 @@
       <c r="DB60" s="6">
         <v>1.95</v>
       </c>
-      <c r="DC60" s="41">
+      <c r="DC60" s="42">
         <v>2.02</v>
       </c>
       <c r="EG60" s="24"/>
@@ -12495,15 +12766,23 @@
       <c r="EJ60" s="34">
         <v>2.16</v>
       </c>
-      <c r="EK60" s="44">
+      <c r="EK60" s="54">
         <v>1.96</v>
       </c>
       <c r="EL60" s="6">
         <v>1.95</v>
       </c>
-      <c r="EM60" s="42">
+      <c r="EM60" s="43">
         <v>2.38</v>
       </c>
+      <c r="FB60"/>
+      <c r="FC60"/>
+      <c r="FD60"/>
+      <c r="FE60"/>
+      <c r="FF60"/>
+      <c r="FG60"/>
+      <c r="FH60"/>
+      <c r="FI60"/>
     </row>
     <row r="61" spans="1:165" x14ac:dyDescent="0.2">
       <c r="A61" s="38">
@@ -12534,7 +12813,7 @@
       <c r="BR61" s="34">
         <v>-0.3</v>
       </c>
-      <c r="BS61" s="43">
+      <c r="BS61" s="49">
         <v>-0.94</v>
       </c>
       <c r="BT61" s="6">
@@ -12557,7 +12836,7 @@
       <c r="DB61" s="6">
         <v>1.86</v>
       </c>
-      <c r="DC61" s="41">
+      <c r="DC61" s="42">
         <v>1.9</v>
       </c>
       <c r="EG61" s="24"/>
@@ -12568,13 +12847,13 @@
       <c r="EJ61" s="34">
         <v>2.23</v>
       </c>
-      <c r="EK61" s="44">
+      <c r="EK61" s="54">
         <v>1.93</v>
       </c>
       <c r="EL61" s="6">
         <v>1.86</v>
       </c>
-      <c r="EM61" s="42">
+      <c r="EM61" s="43">
         <v>2.2799999999999998</v>
       </c>
       <c r="EP61" s="24"/>
@@ -12600,10 +12879,10 @@
       <c r="CZ62" s="24"/>
       <c r="DA62" s="24"/>
       <c r="DB62" s="24"/>
-      <c r="DC62" s="41">
+      <c r="DC62" s="42">
         <v>1.79</v>
       </c>
-      <c r="EM62" s="42">
+      <c r="EM62" s="43">
         <v>2.1800000000000002</v>
       </c>
       <c r="EP62" s="24"/>
@@ -12629,10 +12908,10 @@
       <c r="CZ63" s="24"/>
       <c r="DA63" s="24"/>
       <c r="DB63" s="24"/>
-      <c r="DC63" s="41">
+      <c r="DC63" s="42">
         <v>1.71</v>
       </c>
-      <c r="EM63" s="42">
+      <c r="EM63" s="43">
         <v>2.11</v>
       </c>
       <c r="FB63"/>
@@ -12657,10 +12936,10 @@
       <c r="CZ64" s="24"/>
       <c r="DA64" s="24"/>
       <c r="DB64" s="24"/>
-      <c r="DC64" s="41">
+      <c r="DC64" s="42">
         <v>1.66</v>
       </c>
-      <c r="EM64" s="42">
+      <c r="EM64" s="43">
         <v>2.0499999999999998</v>
       </c>
       <c r="FB64"/>
@@ -12672,7 +12951,7 @@
       <c r="FH64"/>
       <c r="FI64"/>
     </row>
-    <row r="65" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:165" x14ac:dyDescent="0.2">
       <c r="AK65">
         <v>0.65</v>
       </c>
@@ -12685,10 +12964,10 @@
       <c r="CZ65" s="24"/>
       <c r="DA65" s="24"/>
       <c r="DB65" s="24"/>
-      <c r="DC65" s="41">
+      <c r="DC65" s="42">
         <v>1.62</v>
       </c>
-      <c r="EM65" s="42">
+      <c r="EM65" s="43">
         <v>2.02</v>
       </c>
       <c r="FB65"/>
@@ -12700,7 +12979,7 @@
       <c r="FH65"/>
       <c r="FI65"/>
     </row>
-    <row r="66" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:165" x14ac:dyDescent="0.2">
       <c r="CW66" s="24"/>
       <c r="CX66" s="24"/>
       <c r="CY66" s="24"/>
@@ -12717,7 +12996,7 @@
       <c r="FH66"/>
       <c r="FI66"/>
     </row>
-    <row r="67" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:165" x14ac:dyDescent="0.2">
       <c r="CW67" s="24"/>
       <c r="CX67" s="24"/>
       <c r="CY67" s="24"/>
@@ -12734,7 +13013,7 @@
       <c r="FH67"/>
       <c r="FI67"/>
     </row>
-    <row r="68" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:165" x14ac:dyDescent="0.2">
       <c r="CW68" s="24"/>
       <c r="CX68" s="24"/>
       <c r="CY68" s="24"/>
@@ -12751,126 +13030,18 @@
       <c r="FH68"/>
       <c r="FI68"/>
     </row>
-    <row r="69" spans="1:169" x14ac:dyDescent="0.2">
-      <c r="A69" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="EO69" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="EP69" t="s">
-        <v>164</v>
-      </c>
-      <c r="EQ69" t="s">
-        <v>160</v>
-      </c>
-      <c r="ER69" t="s">
-        <v>161</v>
-      </c>
-      <c r="ES69" t="s">
-        <v>156</v>
-      </c>
-      <c r="ET69" t="s">
-        <v>165</v>
-      </c>
-      <c r="EU69" t="s">
-        <v>166</v>
-      </c>
-      <c r="EV69" t="s">
-        <v>167</v>
-      </c>
-      <c r="EW69" t="s">
-        <v>168</v>
-      </c>
-      <c r="EX69" t="s">
-        <v>169</v>
-      </c>
-      <c r="EY69" t="s">
-        <v>172</v>
-      </c>
-      <c r="EZ69" t="s">
-        <v>173</v>
-      </c>
-      <c r="FA69" t="s">
-        <v>135</v>
-      </c>
-      <c r="FB69" t="s">
-        <v>135</v>
-      </c>
-      <c r="FC69" t="s">
-        <v>135</v>
-      </c>
-      <c r="FD69" t="s">
-        <v>136</v>
-      </c>
-      <c r="FE69" t="s">
-        <v>136</v>
-      </c>
-      <c r="FF69" t="s">
-        <v>136</v>
-      </c>
-      <c r="FG69" t="s">
-        <v>137</v>
-      </c>
-      <c r="FH69" t="s">
-        <v>137</v>
-      </c>
-      <c r="FI69" t="s">
-        <v>137</v>
-      </c>
-      <c r="FJ69" t="s">
-        <v>133</v>
-      </c>
-      <c r="FK69" t="s">
-        <v>133</v>
-      </c>
-      <c r="FL69" t="s">
-        <v>138</v>
-      </c>
-      <c r="FM69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:169" x14ac:dyDescent="0.2">
-      <c r="A70" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="EO70" t="s">
-        <v>157</v>
-      </c>
-      <c r="EP70" t="s">
-        <v>158</v>
-      </c>
-      <c r="EQ70" t="s">
-        <v>159</v>
-      </c>
-      <c r="ER70" t="s">
-        <v>111</v>
-      </c>
-      <c r="ES70" t="s">
-        <v>155</v>
-      </c>
-      <c r="ET70" t="s">
-        <v>162</v>
-      </c>
-      <c r="EU70" t="s">
-        <v>113</v>
-      </c>
-      <c r="EV70" t="s">
-        <v>114</v>
-      </c>
-      <c r="EW70" t="s">
-        <v>115</v>
-      </c>
-      <c r="EX70" t="s">
-        <v>116</v>
-      </c>
-      <c r="EY70" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="EZ70" s="3" t="s">
-        <v>96</v>
-      </c>
+    <row r="69" spans="1:165" x14ac:dyDescent="0.2">
+      <c r="A69" s="39"/>
+      <c r="FB69"/>
+      <c r="FC69"/>
+      <c r="FD69"/>
+      <c r="FE69"/>
+      <c r="FF69"/>
+      <c r="FG69"/>
+      <c r="FH69"/>
+      <c r="FI69"/>
+    </row>
+    <row r="70" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB70"/>
       <c r="FC70"/>
       <c r="FD70"/>
@@ -12880,7 +13051,7 @@
       <c r="FH70"/>
       <c r="FI70"/>
     </row>
-    <row r="71" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB71"/>
       <c r="FC71"/>
       <c r="FD71"/>
@@ -12890,7 +13061,7 @@
       <c r="FH71"/>
       <c r="FI71"/>
     </row>
-    <row r="72" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB72"/>
       <c r="FC72"/>
       <c r="FD72"/>
@@ -12900,7 +13071,7 @@
       <c r="FH72"/>
       <c r="FI72"/>
     </row>
-    <row r="73" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB73"/>
       <c r="FC73"/>
       <c r="FD73"/>
@@ -12910,7 +13081,7 @@
       <c r="FH73"/>
       <c r="FI73"/>
     </row>
-    <row r="74" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB74"/>
       <c r="FC74"/>
       <c r="FD74"/>
@@ -12920,7 +13091,7 @@
       <c r="FH74"/>
       <c r="FI74"/>
     </row>
-    <row r="75" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB75"/>
       <c r="FC75"/>
       <c r="FD75"/>
@@ -12930,7 +13101,7 @@
       <c r="FH75"/>
       <c r="FI75"/>
     </row>
-    <row r="76" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB76"/>
       <c r="FC76"/>
       <c r="FD76"/>
@@ -12940,7 +13111,7 @@
       <c r="FH76"/>
       <c r="FI76"/>
     </row>
-    <row r="77" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB77"/>
       <c r="FC77"/>
       <c r="FD77"/>
@@ -12950,7 +13121,7 @@
       <c r="FH77"/>
       <c r="FI77"/>
     </row>
-    <row r="78" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB78"/>
       <c r="FC78"/>
       <c r="FD78"/>
@@ -12960,7 +13131,7 @@
       <c r="FH78"/>
       <c r="FI78"/>
     </row>
-    <row r="79" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB79"/>
       <c r="FC79"/>
       <c r="FD79"/>
@@ -12970,7 +13141,7 @@
       <c r="FH79"/>
       <c r="FI79"/>
     </row>
-    <row r="80" spans="1:169" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:165" x14ac:dyDescent="0.2">
       <c r="FB80"/>
       <c r="FC80"/>
       <c r="FD80"/>
@@ -14061,7 +14232,7 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -14346,181 +14517,181 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" t="s">
+        <v>433</v>
+      </c>
+      <c r="I1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" t="s">
+        <v>431</v>
+      </c>
+      <c r="L1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N1" t="s">
+        <v>430</v>
+      </c>
+      <c r="O1" t="s">
+        <v>388</v>
+      </c>
+      <c r="P1" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R1" t="s">
+        <v>386</v>
+      </c>
+      <c r="S1" t="s">
+        <v>348</v>
+      </c>
+      <c r="T1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" t="s">
+        <v>384</v>
+      </c>
+      <c r="V1" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" t="s">
+        <v>423</v>
+      </c>
+      <c r="X1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>412</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>408</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW1" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>401</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>359</v>
+      </c>
+      <c r="BF1" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH1" t="s">
         <v>398</v>
-      </c>
-      <c r="D1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G1" t="s">
-        <v>358</v>
-      </c>
-      <c r="H1" t="s">
-        <v>435</v>
-      </c>
-      <c r="I1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" t="s">
-        <v>433</v>
-      </c>
-      <c r="L1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M1" t="s">
-        <v>353</v>
-      </c>
-      <c r="N1" t="s">
-        <v>432</v>
-      </c>
-      <c r="O1" t="s">
-        <v>390</v>
-      </c>
-      <c r="P1" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>430</v>
-      </c>
-      <c r="R1" t="s">
-        <v>388</v>
-      </c>
-      <c r="S1" t="s">
-        <v>350</v>
-      </c>
-      <c r="T1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U1" t="s">
-        <v>386</v>
-      </c>
-      <c r="V1" t="s">
-        <v>348</v>
-      </c>
-      <c r="W1" t="s">
-        <v>425</v>
-      </c>
-      <c r="X1" t="s">
-        <v>383</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>418</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>375</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>373</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>371</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>412</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>369</v>
-      </c>
-      <c r="AT1" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>367</v>
-      </c>
-      <c r="AW1" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ1" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>405</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>363</v>
-      </c>
-      <c r="BC1" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>361</v>
-      </c>
-      <c r="BF1" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>400</v>
       </c>
       <c r="BI1" s="32" t="s">
         <v>97</v>
@@ -16771,13 +16942,13 @@
         <v>2.83</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AD21" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AE21" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BI21" s="32">
         <v>4.8094999999999999</v>
@@ -20822,72 +20993,72 @@
     </row>
     <row r="60" spans="1:85" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G60" t="s">
+        <v>317</v>
+      </c>
+      <c r="K60" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="P60" t="s">
+        <v>317</v>
+      </c>
+      <c r="U60" t="s">
         <v>319</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="AB60" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="L60" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="P60" t="s">
-        <v>319</v>
-      </c>
-      <c r="U60" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB60" s="17" t="s">
+      <c r="AC60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG60" t="s">
         <v>318</v>
       </c>
-      <c r="AC60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>320</v>
-      </c>
       <c r="AJ60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AL60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BG60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BH60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BI60" s="32"/>
     </row>
     <row r="61" spans="1:85" x14ac:dyDescent="0.2">
       <c r="AL61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AM61" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AN61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:85" x14ac:dyDescent="0.2">
       <c r="AM62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -20916,181 +21087,181 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M1" t="s">
+        <v>352</v>
+      </c>
+      <c r="N1" t="s">
+        <v>429</v>
+      </c>
+      <c r="O1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P1" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R1" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1" t="s">
+        <v>347</v>
+      </c>
+      <c r="T1" t="s">
+        <v>425</v>
+      </c>
+      <c r="U1" t="s">
+        <v>383</v>
+      </c>
+      <c r="V1" t="s">
+        <v>345</v>
+      </c>
+      <c r="W1" t="s">
+        <v>424</v>
+      </c>
+      <c r="X1" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH1" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AK1" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN1" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>411</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ1" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT1" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW1" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ1" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>362</v>
+      </c>
+      <c r="BC1" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF1" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BH1" t="s">
         <v>397</v>
-      </c>
-      <c r="D1" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" t="s">
-        <v>434</v>
-      </c>
-      <c r="I1" t="s">
-        <v>393</v>
-      </c>
-      <c r="J1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K1" t="s">
-        <v>441</v>
-      </c>
-      <c r="L1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M1" t="s">
-        <v>354</v>
-      </c>
-      <c r="N1" t="s">
-        <v>431</v>
-      </c>
-      <c r="O1" t="s">
-        <v>389</v>
-      </c>
-      <c r="P1" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>429</v>
-      </c>
-      <c r="R1" t="s">
-        <v>387</v>
-      </c>
-      <c r="S1" t="s">
-        <v>349</v>
-      </c>
-      <c r="T1" t="s">
-        <v>427</v>
-      </c>
-      <c r="U1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V1" t="s">
-        <v>347</v>
-      </c>
-      <c r="W1" t="s">
-        <v>426</v>
-      </c>
-      <c r="X1" t="s">
-        <v>384</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>346</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH1" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AK1" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>374</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AQ1" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>370</v>
-      </c>
-      <c r="AT1" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>368</v>
-      </c>
-      <c r="AW1" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ1" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>364</v>
-      </c>
-      <c r="BC1" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>404</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>362</v>
-      </c>
-      <c r="BF1" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>402</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>399</v>
       </c>
       <c r="BI1" s="32" t="s">
         <v>97</v>
@@ -22289,7 +22460,7 @@
         <v>3.73</v>
       </c>
       <c r="O14" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P14" s="23">
         <v>1.08</v>
@@ -22423,7 +22594,7 @@
         <v>4.09</v>
       </c>
       <c r="R15" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S15" s="23">
         <v>1.4</v>
@@ -23341,13 +23512,13 @@
         <v>3.55</v>
       </c>
       <c r="AC21" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AD21" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AE21" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="BI21" s="32">
         <v>4.8094999999999999</v>
@@ -27379,80 +27550,80 @@
     </row>
     <row r="60" spans="1:85" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G60" t="s">
+        <v>317</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="P60" t="s">
+        <v>317</v>
+      </c>
+      <c r="R60" t="s">
+        <v>320</v>
+      </c>
+      <c r="U60" t="s">
         <v>319</v>
       </c>
-      <c r="M60" s="16" t="s">
+      <c r="AB60" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="P60" t="s">
-        <v>319</v>
-      </c>
-      <c r="R60" t="s">
-        <v>322</v>
-      </c>
-      <c r="U60" t="s">
-        <v>321</v>
-      </c>
-      <c r="AB60" s="17" t="s">
+      <c r="AC60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>315</v>
+      </c>
+      <c r="AG60" t="s">
         <v>318</v>
       </c>
-      <c r="AC60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>317</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>320</v>
-      </c>
       <c r="AJ60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AL60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AM60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AN60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AX60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BA60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BB60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BC60" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BG60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BH60" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="61" spans="1:85" x14ac:dyDescent="0.2">
       <c r="AL61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AN61" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="62" spans="1:85" x14ac:dyDescent="0.2">
       <c r="AM62" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -27566,7 +27737,7 @@
         <v>155</v>
       </c>
       <c r="O4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -32697,118 +32868,118 @@
         <v>263</v>
       </c>
       <c r="CH1" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="CI1" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="CJ1" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="CK1" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="CI1" s="22" t="s">
+      <c r="CL1" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="CJ1" s="22" t="s">
+      <c r="CM1" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="CK1" s="22" t="s">
+      <c r="CN1" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="CL1" s="22" t="s">
+      <c r="CO1" s="22" t="s">
         <v>466</v>
       </c>
-      <c r="CM1" s="22" t="s">
+      <c r="CP1" s="22" t="s">
         <v>467</v>
       </c>
-      <c r="CN1" s="22" t="s">
+      <c r="CQ1" s="22" t="s">
         <v>468</v>
       </c>
-      <c r="CO1" s="22" t="s">
+      <c r="CR1" s="22" t="s">
         <v>469</v>
       </c>
-      <c r="CP1" s="22" t="s">
+      <c r="CS1" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="CQ1" s="22" t="s">
-        <v>471</v>
-      </c>
-      <c r="CR1" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="CS1" s="22" t="s">
-        <v>473</v>
-      </c>
       <c r="CT1" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="CU1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="CU1" s="19" t="s">
+      <c r="CV1" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="CV1" s="19" t="s">
+      <c r="CW1" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="CW1" s="19" t="s">
+      <c r="CX1" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="CX1" s="19" t="s">
+      <c r="CY1" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="CY1" s="19" t="s">
+      <c r="CZ1" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="CZ1" s="19" t="s">
+      <c r="DA1" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="DA1" s="20" t="s">
+      <c r="DB1" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="DB1" s="19" t="s">
+      <c r="DC1" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="DC1" s="19" t="s">
+      <c r="DD1" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="DD1" s="19" t="s">
+      <c r="DE1" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="DE1" s="19" t="s">
+      <c r="DF1" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="DF1" s="19" t="s">
+      <c r="DG1" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="DG1" s="19" t="s">
+      <c r="DH1" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="DH1" s="19" t="s">
+      <c r="DI1" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="DI1" s="19" t="s">
+      <c r="DJ1" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="DJ1" s="19" t="s">
+      <c r="DK1" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="DK1" s="19" t="s">
+      <c r="DL1" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="DL1" s="19" t="s">
+      <c r="DM1" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="DM1" s="19" t="s">
+      <c r="DN1" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="DN1" s="19" t="s">
+      <c r="DO1" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="DO1" s="19" t="s">
+      <c r="DP1" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="DP1" s="19" t="s">
+      <c r="DQ1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="DQ1" s="19" t="s">
+      <c r="DR1" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="DR1" s="19" t="s">
+      <c r="DS1" s="19" t="s">
         <v>290</v>
-      </c>
-      <c r="DS1" s="19" t="s">
-        <v>291</v>
       </c>
       <c r="ES1" s="21"/>
       <c r="ET1" s="21"/>
@@ -40726,4 +40897,2991 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N108"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85:F96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="51" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" style="37" customWidth="1"/>
+    <col min="14" max="14" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>484</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>485</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>483</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="M1" s="47" t="s">
+        <v>483</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="B2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="J2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="N2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="B3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="J3" t="s">
+        <v>492</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="N3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" t="s">
+        <v>495</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="F4" t="s">
+        <v>495</v>
+      </c>
+      <c r="I4" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="J4" t="s">
+        <v>496</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="B5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="F5" t="s">
+        <v>499</v>
+      </c>
+      <c r="I5" s="51" t="s">
+        <v>497</v>
+      </c>
+      <c r="J5" t="s">
+        <v>500</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="N5" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="B6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="F6" t="s">
+        <v>503</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>502</v>
+      </c>
+      <c r="J6" t="s">
+        <v>503</v>
+      </c>
+      <c r="M6" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="N6" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="F7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="J7" t="s">
+        <v>505</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="N7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="e">
+        <f ca="1">[1]!FAMEData("FAMEDATE", B4, B5, 0, B6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="B8" s="41" t="e">
+        <f ca="1">[1]!FAMEData("$eval_opt("""&amp;B2&amp;""","""&amp;B7&amp;""")",B4, B5, 0, B6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="50" t="e">
+        <f ca="1">[1]!FAMEData("FAMEDATE", F4, F5, 0, F6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F8" s="41" t="e">
+        <f ca="1">[1]!FAMEData("$eval_opt("""&amp;F2&amp;""","""&amp;F7&amp;""")",F4, F5, 0, F6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I8" s="44" t="e">
+        <f ca="1">[1]!FAMEData("FAMEDATE", J4, J5, 0, J6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J8" s="41" t="e">
+        <f ca="1">[1]!FAMEData("$eval_opt("""&amp;J2&amp;""","""&amp;J7&amp;""")",J4, J5, 0, J6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M8" s="50" t="e">
+        <f ca="1">[1]!FAMEData("FAMEDATE", N4, N5, 0, N6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="N8" s="41" t="e">
+        <f ca="1">[1]!FAMEData("$eval_opt("""&amp;N2&amp;""","""&amp;N7&amp;""")",N4, N5, 0, N6, "Down", "Heading", "Normal")</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="48">
+        <v>34789</v>
+      </c>
+      <c r="B9" s="45">
+        <v>2.6716593277477099</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="48">
+        <v>34789</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1.4344398065328201</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46">
+        <v>34424</v>
+      </c>
+      <c r="J9" s="45">
+        <v>-1.9382999999999999</v>
+      </c>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="48">
+        <v>34789</v>
+      </c>
+      <c r="N9" s="45">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="48">
+        <v>34880</v>
+      </c>
+      <c r="B10" s="45">
+        <v>2.6533526647989101</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="48">
+        <v>34880</v>
+      </c>
+      <c r="F10" s="45">
+        <v>1.4045005368215699</v>
+      </c>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46">
+        <v>34515</v>
+      </c>
+      <c r="J10" s="45">
+        <v>-1.6635</v>
+      </c>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="48">
+        <v>34880</v>
+      </c>
+      <c r="N10" s="45">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="48">
+        <v>34972</v>
+      </c>
+      <c r="B11" s="45">
+        <v>2.3137055067058401</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="48">
+        <v>34972</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1.49470783764869</v>
+      </c>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46">
+        <v>34607</v>
+      </c>
+      <c r="J11" s="45">
+        <v>-1.502</v>
+      </c>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="48">
+        <v>34972</v>
+      </c>
+      <c r="N11" s="45">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="48">
+        <v>35064</v>
+      </c>
+      <c r="B12" s="45">
+        <v>2.1598272138228798</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="48">
+        <v>35064</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1.25133294161173</v>
+      </c>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46">
+        <v>34699</v>
+      </c>
+      <c r="J12" s="45">
+        <v>-1.4630000000000001</v>
+      </c>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="48">
+        <v>35064</v>
+      </c>
+      <c r="N12" s="45">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="48">
+        <v>35155</v>
+      </c>
+      <c r="B13" s="45">
+        <v>0.85561497326203095</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="48">
+        <v>35155</v>
+      </c>
+      <c r="F13" s="45">
+        <v>1.1354605528157899</v>
+      </c>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46">
+        <v>34789</v>
+      </c>
+      <c r="J13" s="45">
+        <v>-1.4244000000000001</v>
+      </c>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="48">
+        <v>35155</v>
+      </c>
+      <c r="N13" s="45">
+        <v>4.6875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="48">
+        <v>35246</v>
+      </c>
+      <c r="B14" s="45">
+        <v>0.99079295294528502</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="48">
+        <v>35246</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1.0069144338807201</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46">
+        <v>34880</v>
+      </c>
+      <c r="J14" s="45">
+        <v>-1.3861000000000001</v>
+      </c>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="48">
+        <v>35246</v>
+      </c>
+      <c r="N14" s="45">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="48">
+        <v>35338</v>
+      </c>
+      <c r="B15" s="45">
+        <v>1.37760022041604</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="48">
+        <v>35338</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1.09455630608795</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46">
+        <v>34972</v>
+      </c>
+      <c r="J15" s="45">
+        <v>-1.2535000000000001</v>
+      </c>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="48">
+        <v>35338</v>
+      </c>
+      <c r="N15" s="45">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="48">
+        <v>35430</v>
+      </c>
+      <c r="B16" s="45">
+        <v>1.7621564482029699</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="48">
+        <v>35430</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1.2337187808967101</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46">
+        <v>35064</v>
+      </c>
+      <c r="J16" s="45">
+        <v>-1.0206</v>
+      </c>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="48">
+        <v>35430</v>
+      </c>
+      <c r="N16" s="45">
+        <v>4.2096999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="48">
+        <v>35520</v>
+      </c>
+      <c r="B17" s="45">
+        <v>3.14634146341464</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="48">
+        <v>35520</v>
+      </c>
+      <c r="F17" s="45">
+        <v>1.70075349838537</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46">
+        <v>35155</v>
+      </c>
+      <c r="J17" s="45">
+        <v>-0.78879999999999995</v>
+      </c>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="48">
+        <v>35520</v>
+      </c>
+      <c r="N17" s="45">
+        <v>3.3167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="48">
+        <v>35611</v>
+      </c>
+      <c r="B18" s="45">
+        <v>2.6992639327024301</v>
+      </c>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="48">
+        <v>35611</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1.9317160826594699</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46">
+        <v>35246</v>
+      </c>
+      <c r="J18" s="45">
+        <v>-0.55840000000000001</v>
+      </c>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="48">
+        <v>35611</v>
+      </c>
+      <c r="N18" s="45">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="48">
+        <v>35703</v>
+      </c>
+      <c r="B19" s="45">
+        <v>2.2641036093950899</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="48">
+        <v>35703</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1.97359306897986</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46">
+        <v>35338</v>
+      </c>
+      <c r="J19" s="45">
+        <v>-0.1588</v>
+      </c>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="48">
+        <v>35703</v>
+      </c>
+      <c r="N19" s="45">
+        <v>3.4582999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="48">
+        <v>35795</v>
+      </c>
+      <c r="B20" s="45">
+        <v>2.2157125494717902</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="48">
+        <v>35795</v>
+      </c>
+      <c r="F20" s="45">
+        <v>2.0339702760084899</v>
+      </c>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46">
+        <v>35430</v>
+      </c>
+      <c r="J20" s="45">
+        <v>0.4173</v>
+      </c>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="48">
+        <v>35795</v>
+      </c>
+      <c r="N20" s="45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="48">
+        <v>35885</v>
+      </c>
+      <c r="B21" s="45">
+        <v>2.1240502945500501</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="48">
+        <v>35885</v>
+      </c>
+      <c r="F21" s="45">
+        <v>2.2787891617273499</v>
+      </c>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46">
+        <v>35520</v>
+      </c>
+      <c r="J21" s="45">
+        <v>0.98709999999999998</v>
+      </c>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="48">
+        <v>35885</v>
+      </c>
+      <c r="N21" s="45">
+        <v>3.5356999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="48">
+        <v>35976</v>
+      </c>
+      <c r="B22" s="45">
+        <v>2.2525520390715301</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="48">
+        <v>35976</v>
+      </c>
+      <c r="F22" s="45">
+        <v>2.4617515582698402</v>
+      </c>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46">
+        <v>35611</v>
+      </c>
+      <c r="J22" s="45">
+        <v>1.5538000000000001</v>
+      </c>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="48">
+        <v>35976</v>
+      </c>
+      <c r="N22" s="45">
+        <v>3.9788000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
+        <v>36068</v>
+      </c>
+      <c r="B23" s="45">
+        <v>2.3509449776660101</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="48">
+        <v>36068</v>
+      </c>
+      <c r="F23" s="45">
+        <v>2.51747813273975</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46">
+        <v>35703</v>
+      </c>
+      <c r="J23" s="45">
+        <v>1.9628000000000001</v>
+      </c>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="48">
+        <v>36068</v>
+      </c>
+      <c r="N23" s="45">
+        <v>6.3182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="48">
+        <v>36160</v>
+      </c>
+      <c r="B24" s="45">
+        <v>2.3373983739837501</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="48">
+        <v>36160</v>
+      </c>
+      <c r="F24" s="45">
+        <v>2.70818594198676</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46">
+        <v>35795</v>
+      </c>
+      <c r="J24" s="45">
+        <v>2.1999</v>
+      </c>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="48">
+        <v>36160</v>
+      </c>
+      <c r="N24" s="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="48">
+        <v>36250</v>
+      </c>
+      <c r="B25" s="45">
+        <v>2.2490008355732698</v>
+      </c>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="48">
+        <v>36250</v>
+      </c>
+      <c r="F25" s="45">
+        <v>2.6750695932031601</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46">
+        <v>35885</v>
+      </c>
+      <c r="J25" s="45">
+        <v>2.4344000000000001</v>
+      </c>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="48">
+        <v>36250</v>
+      </c>
+      <c r="N25" s="45">
+        <v>7.4762000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="48">
+        <v>36341</v>
+      </c>
+      <c r="B26" s="45">
+        <v>2.4362401994652898</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="48">
+        <v>36341</v>
+      </c>
+      <c r="F26" s="45">
+        <v>2.6463479578878299</v>
+      </c>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46">
+        <v>35976</v>
+      </c>
+      <c r="J26" s="45">
+        <v>2.6676000000000002</v>
+      </c>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="48">
+        <v>36341</v>
+      </c>
+      <c r="N26" s="45">
+        <v>6.5339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="48">
+        <v>36433</v>
+      </c>
+      <c r="B27" s="45">
+        <v>1.9643873648048</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="48">
+        <v>36433</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1.9531090723751401</v>
+      </c>
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46">
+        <v>36068</v>
+      </c>
+      <c r="J27" s="45">
+        <v>2.6802000000000001</v>
+      </c>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="48">
+        <v>36433</v>
+      </c>
+      <c r="N27" s="45">
+        <v>5.9545000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="48">
+        <v>36525</v>
+      </c>
+      <c r="B28" s="45">
+        <v>2.6812313803376502</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="48">
+        <v>36525</v>
+      </c>
+      <c r="F28" s="45">
+        <v>1.9550441151146201</v>
+      </c>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46">
+        <v>36160</v>
+      </c>
+      <c r="J28" s="45">
+        <v>2.4563000000000001</v>
+      </c>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="48">
+        <v>36525</v>
+      </c>
+      <c r="N28" s="45">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="48">
+        <v>36616</v>
+      </c>
+      <c r="B29" s="45">
+        <v>2.8552581054870401</v>
+      </c>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="48">
+        <v>36616</v>
+      </c>
+      <c r="F29" s="45">
+        <v>1.9331169747424799</v>
+      </c>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46">
+        <v>36250</v>
+      </c>
+      <c r="J29" s="45">
+        <v>2.2347000000000001</v>
+      </c>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="48">
+        <v>36616</v>
+      </c>
+      <c r="N29" s="45">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="48">
+        <v>36707</v>
+      </c>
+      <c r="B30" s="45">
+        <v>2.9325513196480899</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="48">
+        <v>36707</v>
+      </c>
+      <c r="F30" s="45">
+        <v>2.0193957776270199</v>
+      </c>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46">
+        <v>36341</v>
+      </c>
+      <c r="J30" s="45">
+        <v>2.0143</v>
+      </c>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="48">
+        <v>36707</v>
+      </c>
+      <c r="N30" s="45">
+        <v>5.819</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="48">
+        <v>36799</v>
+      </c>
+      <c r="B31" s="45">
+        <v>3.4603330068560201</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="48">
+        <v>36799</v>
+      </c>
+      <c r="F31" s="45">
+        <v>2.5915853463445799</v>
+      </c>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="46">
+        <v>36433</v>
+      </c>
+      <c r="J31" s="45">
+        <v>1.9087000000000001</v>
+      </c>
+      <c r="K31" s="45"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="48">
+        <v>36799</v>
+      </c>
+      <c r="N31" s="45">
+        <v>6.5614999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="48">
+        <v>36891</v>
+      </c>
+      <c r="B32" s="45">
+        <v>3.0947775628626499</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="48">
+        <v>36891</v>
+      </c>
+      <c r="F32" s="45">
+        <v>2.5921767727448799</v>
+      </c>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46">
+        <v>36525</v>
+      </c>
+      <c r="J32" s="45">
+        <v>1.927</v>
+      </c>
+      <c r="K32" s="45"/>
+      <c r="L32" s="45"/>
+      <c r="M32" s="48">
+        <v>36891</v>
+      </c>
+      <c r="N32" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33" s="48">
+        <v>36981</v>
+      </c>
+      <c r="B33" s="45">
+        <v>3.57337723874525</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="48">
+        <v>36981</v>
+      </c>
+      <c r="F33" s="45">
+        <v>2.7804144913779401</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46">
+        <v>36616</v>
+      </c>
+      <c r="J33" s="45">
+        <v>1.95</v>
+      </c>
+      <c r="K33" s="45"/>
+      <c r="L33" s="45"/>
+      <c r="M33" s="48">
+        <v>36981</v>
+      </c>
+      <c r="N33" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="48">
+        <v>37072</v>
+      </c>
+      <c r="B34" s="45">
+        <v>3.9572649572649601</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="48">
+        <v>37072</v>
+      </c>
+      <c r="F34" s="45">
+        <v>2.4967726792630001</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="46">
+        <v>36707</v>
+      </c>
+      <c r="J34" s="45">
+        <v>1.96</v>
+      </c>
+      <c r="K34" s="45"/>
+      <c r="L34" s="45"/>
+      <c r="M34" s="48">
+        <v>37072</v>
+      </c>
+      <c r="N34" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="48">
+        <v>37164</v>
+      </c>
+      <c r="B35" s="45">
+        <v>2.5560194257476399</v>
+      </c>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="48">
+        <v>37164</v>
+      </c>
+      <c r="F35" s="45">
+        <v>2.41111804147824</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="46">
+        <v>36799</v>
+      </c>
+      <c r="J35" s="45">
+        <v>1.83</v>
+      </c>
+      <c r="K35" s="45"/>
+      <c r="L35" s="45"/>
+      <c r="M35" s="48">
+        <v>37164</v>
+      </c>
+      <c r="N35" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
+        <v>37256</v>
+      </c>
+      <c r="B36" s="45">
+        <v>2.0009380863039499</v>
+      </c>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="48">
+        <v>37256</v>
+      </c>
+      <c r="F36" s="45">
+        <v>2.5499234926107599</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="46">
+        <v>36891</v>
+      </c>
+      <c r="J36" s="45">
+        <v>1.54</v>
+      </c>
+      <c r="K36" s="45"/>
+      <c r="L36" s="45"/>
+      <c r="M36" s="48">
+        <v>37256</v>
+      </c>
+      <c r="N36" s="45">
+        <v>6.9141000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="48">
+        <v>37346</v>
+      </c>
+      <c r="B37" s="45">
+        <v>1.0471349353049899</v>
+      </c>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="48">
+        <v>37346</v>
+      </c>
+      <c r="F37" s="45">
+        <v>2.3521376072651798</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="46">
+        <v>36981</v>
+      </c>
+      <c r="J37" s="45">
+        <v>1.26</v>
+      </c>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="48">
+        <v>37346</v>
+      </c>
+      <c r="N37" s="45">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="48">
+        <v>37437</v>
+      </c>
+      <c r="B38" s="45">
+        <v>0.42569906912586197</v>
+      </c>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="48">
+        <v>37437</v>
+      </c>
+      <c r="F38" s="45">
+        <v>2.5008348838318799</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
+      <c r="I38" s="46">
+        <v>37072</v>
+      </c>
+      <c r="J38" s="45">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="45"/>
+      <c r="L38" s="45"/>
+      <c r="M38" s="48">
+        <v>37437</v>
+      </c>
+      <c r="N38" s="45">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="48">
+        <v>37529</v>
+      </c>
+      <c r="B39" s="45">
+        <v>1.44646598912612</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="48">
+        <v>37529</v>
+      </c>
+      <c r="F39" s="45">
+        <v>2.3857558858796102</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="46">
+        <v>37164</v>
+      </c>
+      <c r="J39" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="K39" s="45"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="48">
+        <v>37529</v>
+      </c>
+      <c r="N39" s="45">
+        <v>6.9772999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="48">
+        <v>37621</v>
+      </c>
+      <c r="B40" s="45">
+        <v>2.23851084767275</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="48">
+        <v>37621</v>
+      </c>
+      <c r="F40" s="45">
+        <v>1.9916706802277899</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="46">
+        <v>37256</v>
+      </c>
+      <c r="J40" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="K40" s="45"/>
+      <c r="L40" s="45"/>
+      <c r="M40" s="48">
+        <v>37621</v>
+      </c>
+      <c r="N40" s="45">
+        <v>6.9062999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A41" s="48">
+        <v>37711</v>
+      </c>
+      <c r="B41" s="45">
+        <v>4.5430016554928603</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="48">
+        <v>37711</v>
+      </c>
+      <c r="F41" s="45">
+        <v>1.7924111548692101</v>
+      </c>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="46">
+        <v>37346</v>
+      </c>
+      <c r="J41" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="K41" s="45"/>
+      <c r="L41" s="45"/>
+      <c r="M41" s="48">
+        <v>37711</v>
+      </c>
+      <c r="N41" s="45">
+        <v>5.9762000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="48">
+        <v>37802</v>
+      </c>
+      <c r="B42" s="45">
+        <v>2.2440941300610402</v>
+      </c>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="48">
+        <v>37802</v>
+      </c>
+      <c r="F42" s="45">
+        <v>1.2790199765419801</v>
+      </c>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="46">
+        <v>37437</v>
+      </c>
+      <c r="J42" s="45">
+        <v>-0.3</v>
+      </c>
+      <c r="K42" s="45"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="48">
+        <v>37802</v>
+      </c>
+      <c r="N42" s="45">
+        <v>5.0964999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="48">
+        <v>37894</v>
+      </c>
+      <c r="B43" s="45">
+        <v>1.9108280254777099</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="48">
+        <v>37894</v>
+      </c>
+      <c r="F43" s="45">
+        <v>0.81606855719451599</v>
+      </c>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="46">
+        <v>37529</v>
+      </c>
+      <c r="J43" s="45">
+        <v>-0.8</v>
+      </c>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="48">
+        <v>37894</v>
+      </c>
+      <c r="N43" s="45">
+        <v>3.4015</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="48">
+        <v>37986</v>
+      </c>
+      <c r="B44" s="45">
+        <v>1.22878192269289</v>
+      </c>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="48">
+        <v>37986</v>
+      </c>
+      <c r="F44" s="45">
+        <v>0.55555555555555403</v>
+      </c>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="46">
+        <v>37621</v>
+      </c>
+      <c r="J44" s="45">
+        <v>-1.4</v>
+      </c>
+      <c r="K44" s="45"/>
+      <c r="L44" s="45"/>
+      <c r="M44" s="48">
+        <v>37986</v>
+      </c>
+      <c r="N44" s="45">
+        <v>2.4758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="37">
+        <v>38077</v>
+      </c>
+      <c r="B45">
+        <v>-1.3998250218722601</v>
+      </c>
+      <c r="E45" s="37">
+        <v>38077</v>
+      </c>
+      <c r="F45">
+        <v>9.2336103416434903E-2</v>
+      </c>
+      <c r="I45" s="46">
+        <v>37711</v>
+      </c>
+      <c r="J45" s="45">
+        <v>-2</v>
+      </c>
+      <c r="M45" s="37">
+        <v>38077</v>
+      </c>
+      <c r="N45">
+        <v>2.0194999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="37">
+        <v>38168</v>
+      </c>
+      <c r="B46">
+        <v>0.86032028469751298</v>
+      </c>
+      <c r="E46" s="37">
+        <v>38168</v>
+      </c>
+      <c r="F46">
+        <v>0.21415441176471101</v>
+      </c>
+      <c r="I46" s="46">
+        <v>37802</v>
+      </c>
+      <c r="J46" s="45">
+        <v>-2.1</v>
+      </c>
+      <c r="M46" s="37">
+        <v>38168</v>
+      </c>
+      <c r="N46">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="37">
+        <v>38260</v>
+      </c>
+      <c r="B47">
+        <v>1.19017857142858</v>
+      </c>
+      <c r="E47" s="37">
+        <v>38260</v>
+      </c>
+      <c r="F47">
+        <v>0.276581817511312</v>
+      </c>
+      <c r="I47" s="46">
+        <v>37894</v>
+      </c>
+      <c r="J47" s="45">
+        <v>-2</v>
+      </c>
+      <c r="M47" s="37">
+        <v>38260</v>
+      </c>
+      <c r="N47">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" s="37">
+        <v>38352</v>
+      </c>
+      <c r="B48">
+        <v>1.2440795144535299</v>
+      </c>
+      <c r="E48" s="37">
+        <v>38352</v>
+      </c>
+      <c r="F48">
+        <v>0.85911602209944904</v>
+      </c>
+      <c r="I48" s="46">
+        <v>37986</v>
+      </c>
+      <c r="J48" s="45">
+        <v>-1.8</v>
+      </c>
+      <c r="M48" s="37">
+        <v>38352</v>
+      </c>
+      <c r="N48">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="37">
+        <v>38442</v>
+      </c>
+      <c r="B49">
+        <v>1.00532386867791</v>
+      </c>
+      <c r="E49" s="37">
+        <v>38442</v>
+      </c>
+      <c r="F49">
+        <v>0.73800738007379096</v>
+      </c>
+      <c r="I49" s="51">
+        <v>38077</v>
+      </c>
+      <c r="J49">
+        <v>-1.4</v>
+      </c>
+      <c r="M49" s="37">
+        <v>38442</v>
+      </c>
+      <c r="N49">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="37">
+        <v>38533</v>
+      </c>
+      <c r="B50">
+        <v>1.5286635440648499</v>
+      </c>
+      <c r="E50" s="37">
+        <v>38533</v>
+      </c>
+      <c r="F50">
+        <v>1.00886887456091</v>
+      </c>
+      <c r="I50" s="51">
+        <v>38168</v>
+      </c>
+      <c r="J50">
+        <v>-1.2</v>
+      </c>
+      <c r="M50" s="37">
+        <v>38533</v>
+      </c>
+      <c r="N50">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="37">
+        <v>38625</v>
+      </c>
+      <c r="B51">
+        <v>1.76471107267961</v>
+      </c>
+      <c r="E51" s="37">
+        <v>38625</v>
+      </c>
+      <c r="F51">
+        <v>1.22555554534003</v>
+      </c>
+      <c r="I51" s="51">
+        <v>38260</v>
+      </c>
+      <c r="J51">
+        <v>-0.9</v>
+      </c>
+      <c r="M51" s="37">
+        <v>38625</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="37">
+        <v>38717</v>
+      </c>
+      <c r="B52">
+        <v>1.7852597579278899</v>
+      </c>
+      <c r="E52" s="37">
+        <v>38717</v>
+      </c>
+      <c r="F52">
+        <v>1.0654323354605499</v>
+      </c>
+      <c r="I52" s="51">
+        <v>38352</v>
+      </c>
+      <c r="J52">
+        <v>-0.7</v>
+      </c>
+      <c r="M52" s="37">
+        <v>38717</v>
+      </c>
+      <c r="N52">
+        <v>2.1602000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="37">
+        <v>38807</v>
+      </c>
+      <c r="B53">
+        <v>2.2260680119121901</v>
+      </c>
+      <c r="E53" s="37">
+        <v>38807</v>
+      </c>
+      <c r="F53">
+        <v>0.91575091575091305</v>
+      </c>
+      <c r="I53" s="51">
+        <v>38442</v>
+      </c>
+      <c r="J53">
+        <v>-0.4</v>
+      </c>
+      <c r="M53" s="37">
+        <v>38807</v>
+      </c>
+      <c r="N53">
+        <v>2.2923</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="37">
+        <v>38898</v>
+      </c>
+      <c r="B54">
+        <v>2.37445699391834</v>
+      </c>
+      <c r="E54" s="37">
+        <v>38898</v>
+      </c>
+      <c r="F54">
+        <v>0.78722998556290902</v>
+      </c>
+      <c r="I54" s="51">
+        <v>38533</v>
+      </c>
+      <c r="J54">
+        <v>-0.1</v>
+      </c>
+      <c r="M54" s="37">
+        <v>38898</v>
+      </c>
+      <c r="N54">
+        <v>2.5905</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="37">
+        <v>38990</v>
+      </c>
+      <c r="B55">
+        <v>2.2257289760953198</v>
+      </c>
+      <c r="E55" s="37">
+        <v>38990</v>
+      </c>
+      <c r="F55">
+        <v>0.51498637602180897</v>
+      </c>
+      <c r="I55" s="51">
+        <v>38625</v>
+      </c>
+      <c r="J55">
+        <v>0.2</v>
+      </c>
+      <c r="M55" s="37">
+        <v>38990</v>
+      </c>
+      <c r="N55">
+        <v>2.8731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="37">
+        <v>39082</v>
+      </c>
+      <c r="B56">
+        <v>2.5007114092802301</v>
+      </c>
+      <c r="E56" s="37">
+        <v>39082</v>
+      </c>
+      <c r="F56">
+        <v>0.84281842818427799</v>
+      </c>
+      <c r="I56" s="51">
+        <v>38717</v>
+      </c>
+      <c r="J56">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="37">
+        <v>39082</v>
+      </c>
+      <c r="N56">
+        <v>3.1983999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="37">
+        <v>39172</v>
+      </c>
+      <c r="B57">
+        <v>1.0312201912913399</v>
+      </c>
+      <c r="E57" s="37">
+        <v>39172</v>
+      </c>
+      <c r="F57">
+        <v>1.20961887477313</v>
+      </c>
+      <c r="I57" s="51">
+        <v>38807</v>
+      </c>
+      <c r="J57">
+        <v>0.65</v>
+      </c>
+      <c r="M57" s="37">
+        <v>39172</v>
+      </c>
+      <c r="N57">
+        <v>3.7265999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="37">
+        <v>39263</v>
+      </c>
+      <c r="B58">
+        <v>0.33946347797306797</v>
+      </c>
+      <c r="E58" s="37">
+        <v>39263</v>
+      </c>
+      <c r="F58">
+        <v>1.35135135135136</v>
+      </c>
+      <c r="I58" s="51">
+        <v>38898</v>
+      </c>
+      <c r="J58">
+        <v>1.05</v>
+      </c>
+      <c r="M58" s="37">
+        <v>39263</v>
+      </c>
+      <c r="N58">
+        <v>4.1017000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="37">
+        <v>39355</v>
+      </c>
+      <c r="B59">
+        <v>0.16963528413909101</v>
+      </c>
+      <c r="E59" s="37">
+        <v>39355</v>
+      </c>
+      <c r="F59">
+        <v>1.59577832596891</v>
+      </c>
+      <c r="I59" s="51">
+        <v>38990</v>
+      </c>
+      <c r="J59">
+        <v>1.45</v>
+      </c>
+      <c r="M59" s="37">
+        <v>39355</v>
+      </c>
+      <c r="N59">
+        <v>4.6307999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="37">
+        <v>39447</v>
+      </c>
+      <c r="B60">
+        <v>1.3738043359384799</v>
+      </c>
+      <c r="E60" s="37">
+        <v>39447</v>
+      </c>
+      <c r="F60">
+        <v>1.5828652817715401</v>
+      </c>
+      <c r="I60" s="51">
+        <v>39082</v>
+      </c>
+      <c r="J60">
+        <v>2.1</v>
+      </c>
+      <c r="M60" s="37">
+        <v>39447</v>
+      </c>
+      <c r="N60">
+        <v>5.0396999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="37">
+        <v>39538</v>
+      </c>
+      <c r="B61">
+        <v>3.54351135948014</v>
+      </c>
+      <c r="E61" s="37">
+        <v>39538</v>
+      </c>
+      <c r="F61">
+        <v>2.0926541920328599</v>
+      </c>
+      <c r="I61" s="51">
+        <v>39172</v>
+      </c>
+      <c r="J61">
+        <v>2.7</v>
+      </c>
+      <c r="M61" s="37">
+        <v>39538</v>
+      </c>
+      <c r="N61">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="37">
+        <v>39629</v>
+      </c>
+      <c r="B62">
+        <v>3.2139927093112601</v>
+      </c>
+      <c r="E62" s="37">
+        <v>39629</v>
+      </c>
+      <c r="F62">
+        <v>2.37066666666668</v>
+      </c>
+      <c r="I62" s="51">
+        <v>39263</v>
+      </c>
+      <c r="J62">
+        <v>3.1</v>
+      </c>
+      <c r="M62" s="37">
+        <v>39629</v>
+      </c>
+      <c r="N62">
+        <v>5.4443999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="37">
+        <v>39721</v>
+      </c>
+      <c r="B63">
+        <v>4.71380186282813</v>
+      </c>
+      <c r="E63" s="37">
+        <v>39721</v>
+      </c>
+      <c r="F63">
+        <v>2.9350813373297799</v>
+      </c>
+      <c r="I63" s="51">
+        <v>39355</v>
+      </c>
+      <c r="J63">
+        <v>3.25</v>
+      </c>
+      <c r="M63" s="37">
+        <v>39721</v>
+      </c>
+      <c r="N63">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="37">
+        <v>39813</v>
+      </c>
+      <c r="B64">
+        <v>3.59585062240664</v>
+      </c>
+      <c r="E64" s="37">
+        <v>39813</v>
+      </c>
+      <c r="F64">
+        <v>2.88095238095238</v>
+      </c>
+      <c r="I64" s="51">
+        <v>39447</v>
+      </c>
+      <c r="J64">
+        <v>3.3</v>
+      </c>
+      <c r="M64" s="37">
+        <v>39813</v>
+      </c>
+      <c r="N64">
+        <v>4.8094999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="37">
+        <v>39903</v>
+      </c>
+      <c r="B65">
+        <v>2.4373013069586702</v>
+      </c>
+      <c r="E65" s="37">
+        <v>39903</v>
+      </c>
+      <c r="F65">
+        <v>2.8392774025837202</v>
+      </c>
+      <c r="I65" s="51">
+        <v>39538</v>
+      </c>
+      <c r="J65">
+        <v>3.09</v>
+      </c>
+      <c r="M65" s="37">
+        <v>39903</v>
+      </c>
+      <c r="N65">
+        <v>2.6587000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="37">
+        <v>39994</v>
+      </c>
+      <c r="B66">
+        <v>3.1141849608985499</v>
+      </c>
+      <c r="E66" s="37">
+        <v>39994</v>
+      </c>
+      <c r="F66">
+        <v>2.9519451463237298</v>
+      </c>
+      <c r="I66" s="51">
+        <v>39629</v>
+      </c>
+      <c r="J66">
+        <v>2.69</v>
+      </c>
+      <c r="M66" s="37">
+        <v>39994</v>
+      </c>
+      <c r="N66">
+        <v>1.6483000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="37">
+        <v>40086</v>
+      </c>
+      <c r="B67">
+        <v>1.7517472998725101</v>
+      </c>
+      <c r="E67" s="37">
+        <v>40086</v>
+      </c>
+      <c r="F67">
+        <v>2.41964982618039</v>
+      </c>
+      <c r="I67" s="51">
+        <v>39721</v>
+      </c>
+      <c r="J67">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="M67" s="37">
+        <v>40086</v>
+      </c>
+      <c r="N67">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="37">
+        <v>40178</v>
+      </c>
+      <c r="B68">
+        <v>1.3887887551101701</v>
+      </c>
+      <c r="E68" s="37">
+        <v>40178</v>
+      </c>
+      <c r="F68">
+        <v>2.2854220416512998</v>
+      </c>
+      <c r="I68" s="51">
+        <v>39813</v>
+      </c>
+      <c r="J68">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M68" s="37">
+        <v>40178</v>
+      </c>
+      <c r="N68">
+        <v>1.4570000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="37">
+        <v>40268</v>
+      </c>
+      <c r="B69">
+        <v>2.9403902699812998</v>
+      </c>
+      <c r="E69" s="37">
+        <v>40268</v>
+      </c>
+      <c r="F69">
+        <v>1.9641332194705301</v>
+      </c>
+      <c r="I69" s="51">
+        <v>39903</v>
+      </c>
+      <c r="J69">
+        <v>-0.52</v>
+      </c>
+      <c r="M69" s="37">
+        <v>40268</v>
+      </c>
+      <c r="N69">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="37">
+        <v>40359</v>
+      </c>
+      <c r="B70">
+        <v>2.59602649006623</v>
+      </c>
+      <c r="E70" s="37">
+        <v>40359</v>
+      </c>
+      <c r="F70">
+        <v>1.4900196795051901</v>
+      </c>
+      <c r="I70" s="51">
+        <v>39994</v>
+      </c>
+      <c r="J70">
+        <v>-0.91</v>
+      </c>
+      <c r="M70" s="37">
+        <v>40359</v>
+      </c>
+      <c r="N70">
+        <v>1.9068000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="37">
+        <v>40451</v>
+      </c>
+      <c r="B71">
+        <v>1.85430463576159</v>
+      </c>
+      <c r="E71" s="37">
+        <v>40451</v>
+      </c>
+      <c r="F71">
+        <v>1.1811023622047001</v>
+      </c>
+      <c r="I71" s="51">
+        <v>40086</v>
+      </c>
+      <c r="J71">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M71" s="37">
+        <v>40451</v>
+      </c>
+      <c r="N71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="37">
+        <v>40543</v>
+      </c>
+      <c r="B72">
+        <v>2.2122728469844599</v>
+      </c>
+      <c r="E72" s="37">
+        <v>40543</v>
+      </c>
+      <c r="F72">
+        <v>1.0055865921787801</v>
+      </c>
+      <c r="I72" s="51">
+        <v>40178</v>
+      </c>
+      <c r="J72">
+        <v>-1.05</v>
+      </c>
+      <c r="M72" s="37">
+        <v>40543</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="37">
+        <v>40633</v>
+      </c>
+      <c r="B73">
+        <v>1.4022331861854</v>
+      </c>
+      <c r="E73" s="37">
+        <v>40633</v>
+      </c>
+      <c r="F73">
+        <v>0.75376884422111401</v>
+      </c>
+      <c r="I73" s="51">
+        <v>40268</v>
+      </c>
+      <c r="J73">
+        <v>-0.97</v>
+      </c>
+      <c r="M73" s="37">
+        <v>40633</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="37">
+        <v>40724</v>
+      </c>
+      <c r="B74">
+        <v>1.4200877872450299</v>
+      </c>
+      <c r="E74" s="37">
+        <v>40724</v>
+      </c>
+      <c r="F74">
+        <v>0.99722991689752405</v>
+      </c>
+      <c r="I74" s="51">
+        <v>40359</v>
+      </c>
+      <c r="J74">
+        <v>-0.95</v>
+      </c>
+      <c r="M74" s="37">
+        <v>40724</v>
+      </c>
+      <c r="N74">
+        <v>2.1356000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="37">
+        <v>40816</v>
+      </c>
+      <c r="B75">
+        <v>1.4824447334200499</v>
+      </c>
+      <c r="E75" s="37">
+        <v>40816</v>
+      </c>
+      <c r="F75">
+        <v>1.0561423012785101</v>
+      </c>
+      <c r="I75" s="51">
+        <v>40451</v>
+      </c>
+      <c r="J75">
+        <v>-0.77</v>
+      </c>
+      <c r="M75" s="37">
+        <v>40816</v>
+      </c>
+      <c r="N75">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="37">
+        <v>40908</v>
+      </c>
+      <c r="B76">
+        <v>0.90182942540582001</v>
+      </c>
+      <c r="E76" s="37">
+        <v>40908</v>
+      </c>
+      <c r="F76">
+        <v>1.0785398230088299</v>
+      </c>
+      <c r="I76" s="51">
+        <v>40543</v>
+      </c>
+      <c r="J76">
+        <v>-0.6</v>
+      </c>
+      <c r="M76" s="37">
+        <v>40908</v>
+      </c>
+      <c r="N76">
+        <v>2.1640999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="37">
+        <v>40999</v>
+      </c>
+      <c r="B77">
+        <v>0.81946222791295897</v>
+      </c>
+      <c r="E77" s="37">
+        <v>40999</v>
+      </c>
+      <c r="F77">
+        <v>1.38542532557495</v>
+      </c>
+      <c r="I77" s="51">
+        <v>40633</v>
+      </c>
+      <c r="J77">
+        <v>-0.3</v>
+      </c>
+      <c r="M77" s="37">
+        <v>40999</v>
+      </c>
+      <c r="N77">
+        <v>1.7038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="37">
+        <v>41090</v>
+      </c>
+      <c r="B78">
+        <v>0.432790224032575</v>
+      </c>
+      <c r="E78" s="37">
+        <v>41090</v>
+      </c>
+      <c r="F78">
+        <v>1.1245200219418301</v>
+      </c>
+      <c r="I78" s="51">
+        <v>40724</v>
+      </c>
+      <c r="J78">
+        <v>-0.1</v>
+      </c>
+      <c r="M78" s="37">
+        <v>41090</v>
+      </c>
+      <c r="N78">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="37">
+        <v>41182</v>
+      </c>
+      <c r="B79">
+        <v>0.384418247052776</v>
+      </c>
+      <c r="E79" s="37">
+        <v>41182</v>
+      </c>
+      <c r="F79">
+        <v>1.21012101210121</v>
+      </c>
+      <c r="I79" s="51">
+        <v>40816</v>
+      </c>
+      <c r="J79">
+        <v>-0.05</v>
+      </c>
+      <c r="M79" s="37">
+        <v>41182</v>
+      </c>
+      <c r="N79">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="37">
+        <v>41274</v>
+      </c>
+      <c r="B80">
+        <v>1.2002042900919301</v>
+      </c>
+      <c r="E80" s="37">
+        <v>41274</v>
+      </c>
+      <c r="F80">
+        <v>1.1764705882352899</v>
+      </c>
+      <c r="I80" s="51">
+        <v>40908</v>
+      </c>
+      <c r="J80">
+        <v>0.1</v>
+      </c>
+      <c r="M80" s="37">
+        <v>41274</v>
+      </c>
+      <c r="N80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="37">
+        <v>41364</v>
+      </c>
+      <c r="B81">
+        <v>1.2192024384048801</v>
+      </c>
+      <c r="E81" s="37">
+        <v>41364</v>
+      </c>
+      <c r="F81">
+        <v>1.0385351188849401</v>
+      </c>
+      <c r="I81" s="51">
+        <v>40999</v>
+      </c>
+      <c r="J81">
+        <v>0.2</v>
+      </c>
+      <c r="M81" s="37">
+        <v>41364</v>
+      </c>
+      <c r="N81">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="37">
+        <v>41455</v>
+      </c>
+      <c r="B82">
+        <v>1.97718631178707</v>
+      </c>
+      <c r="E82" s="37">
+        <v>41455</v>
+      </c>
+      <c r="F82">
+        <v>1.4103607268782099</v>
+      </c>
+      <c r="I82" s="51">
+        <v>41090</v>
+      </c>
+      <c r="J82">
+        <v>0.25</v>
+      </c>
+      <c r="M82" s="37">
+        <v>41455</v>
+      </c>
+      <c r="N82">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="37">
+        <v>41547</v>
+      </c>
+      <c r="B83">
+        <v>3.0125095736533098</v>
+      </c>
+      <c r="E83" s="37">
+        <v>41547</v>
+      </c>
+      <c r="F83">
+        <v>1.98369565217391</v>
+      </c>
+      <c r="I83" s="51">
+        <v>41182</v>
+      </c>
+      <c r="J83">
+        <v>0.27</v>
+      </c>
+      <c r="M83" s="37">
+        <v>41547</v>
+      </c>
+      <c r="N83">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="37">
+        <v>41639</v>
+      </c>
+      <c r="B84">
+        <v>2.3214736310875699</v>
+      </c>
+      <c r="E84" s="37">
+        <v>41639</v>
+      </c>
+      <c r="F84">
+        <v>1.97404002163331</v>
+      </c>
+      <c r="I84" s="51">
+        <v>41274</v>
+      </c>
+      <c r="J84">
+        <v>0.3</v>
+      </c>
+      <c r="M84" s="37">
+        <v>41639</v>
+      </c>
+      <c r="N84">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="37">
+        <v>41729</v>
+      </c>
+      <c r="B85">
+        <v>2.13299874529485</v>
+      </c>
+      <c r="E85" s="37">
+        <v>41729</v>
+      </c>
+      <c r="F85">
+        <v>2.4614552339734801</v>
+      </c>
+      <c r="I85" s="51">
+        <v>41364</v>
+      </c>
+      <c r="J85">
+        <v>0.2</v>
+      </c>
+      <c r="M85" s="37">
+        <v>41729</v>
+      </c>
+      <c r="N85">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="37">
+        <v>41820</v>
+      </c>
+      <c r="B86">
+        <v>1.8394233159333599</v>
+      </c>
+      <c r="E86" s="37">
+        <v>41820</v>
+      </c>
+      <c r="F86">
+        <v>2.4070607114201601</v>
+      </c>
+      <c r="I86" s="51">
+        <v>41455</v>
+      </c>
+      <c r="J86">
+        <v>0.1</v>
+      </c>
+      <c r="M86" s="37">
+        <v>41820</v>
+      </c>
+      <c r="N86">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="37">
+        <v>41912</v>
+      </c>
+      <c r="B87">
+        <v>2.1313506815365399</v>
+      </c>
+      <c r="E87" s="37">
+        <v>41912</v>
+      </c>
+      <c r="F87">
+        <v>2.4247268851585302</v>
+      </c>
+      <c r="I87" s="51">
+        <v>41547</v>
+      </c>
+      <c r="J87">
+        <v>9.5410000000000006E-16</v>
+      </c>
+      <c r="M87" s="37">
+        <v>41912</v>
+      </c>
+      <c r="N87">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="37">
+        <v>42004</v>
+      </c>
+      <c r="B88">
+        <v>1.99753390875463</v>
+      </c>
+      <c r="E88" s="37">
+        <v>42004</v>
+      </c>
+      <c r="F88">
+        <v>2.41315300981173</v>
+      </c>
+      <c r="I88" s="51">
+        <v>41639</v>
+      </c>
+      <c r="J88">
+        <v>-0.15</v>
+      </c>
+      <c r="M88" s="37">
+        <v>42004</v>
+      </c>
+      <c r="N88">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="37">
+        <v>42094</v>
+      </c>
+      <c r="B89">
+        <v>1.9656019656019801</v>
+      </c>
+      <c r="E89" s="37">
+        <v>42094</v>
+      </c>
+      <c r="F89">
+        <v>2.3495248152059198</v>
+      </c>
+      <c r="I89" s="51">
+        <v>41729</v>
+      </c>
+      <c r="J89">
+        <v>-0.25</v>
+      </c>
+      <c r="M89" s="37">
+        <v>42094</v>
+      </c>
+      <c r="N89">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="37">
+        <v>42185</v>
+      </c>
+      <c r="B90">
+        <v>2.2455455211130202</v>
+      </c>
+      <c r="E90" s="37">
+        <v>42185</v>
+      </c>
+      <c r="F90">
+        <v>2.58553147035783</v>
+      </c>
+      <c r="I90" s="51">
+        <v>41820</v>
+      </c>
+      <c r="J90">
+        <v>-0.34</v>
+      </c>
+      <c r="M90" s="37">
+        <v>42185</v>
+      </c>
+      <c r="N90">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="37">
+        <v>42277</v>
+      </c>
+      <c r="B91">
+        <v>1.96554234409128</v>
+      </c>
+      <c r="E91" s="37">
+        <v>42277</v>
+      </c>
+      <c r="F91">
+        <v>2.8616024973985299</v>
+      </c>
+      <c r="I91" s="51">
+        <v>41912</v>
+      </c>
+      <c r="J91">
+        <v>-0.5</v>
+      </c>
+      <c r="M91" s="37">
+        <v>42277</v>
+      </c>
+      <c r="N91">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="37">
+        <v>42369</v>
+      </c>
+      <c r="B92">
+        <v>2.48618358189856</v>
+      </c>
+      <c r="E92" s="37">
+        <v>42369</v>
+      </c>
+      <c r="F92">
+        <v>3.0376523376489</v>
+      </c>
+      <c r="I92" s="51">
+        <v>42004</v>
+      </c>
+      <c r="J92">
+        <v>-0.6</v>
+      </c>
+      <c r="M92" s="37">
+        <v>42369</v>
+      </c>
+      <c r="N92">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="37">
+        <v>42460</v>
+      </c>
+      <c r="B93">
+        <v>2.5968203646288499</v>
+      </c>
+      <c r="E93" s="37">
+        <v>42460</v>
+      </c>
+      <c r="F93">
+        <v>3.0250117786540902</v>
+      </c>
+      <c r="I93" s="51">
+        <v>42094</v>
+      </c>
+      <c r="J93">
+        <v>-0.75</v>
+      </c>
+      <c r="M93" s="37">
+        <v>42460</v>
+      </c>
+      <c r="N93">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="37">
+        <v>42551</v>
+      </c>
+      <c r="B94">
+        <v>2.79907326361832</v>
+      </c>
+      <c r="E94" s="37">
+        <v>42551</v>
+      </c>
+      <c r="F94">
+        <v>3.0438098806446501</v>
+      </c>
+      <c r="I94" s="51">
+        <v>42185</v>
+      </c>
+      <c r="J94">
+        <v>-0.9</v>
+      </c>
+      <c r="M94" s="37">
+        <v>42551</v>
+      </c>
+      <c r="N94">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="37">
+        <v>42643</v>
+      </c>
+      <c r="B95">
+        <v>2.7855331913233798</v>
+      </c>
+      <c r="E95" s="37">
+        <v>42643</v>
+      </c>
+      <c r="F95">
+        <v>2.8648288414065499</v>
+      </c>
+      <c r="I95" s="51">
+        <v>42277</v>
+      </c>
+      <c r="J95">
+        <v>-1.0543</v>
+      </c>
+      <c r="M95" s="37">
+        <v>42643</v>
+      </c>
+      <c r="N95">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="37">
+        <v>42735</v>
+      </c>
+      <c r="B96">
+        <v>2.83124513567132</v>
+      </c>
+      <c r="E96" s="37">
+        <v>42735</v>
+      </c>
+      <c r="F96">
+        <v>2.84869649671771</v>
+      </c>
+      <c r="I96" s="51">
+        <v>42369</v>
+      </c>
+      <c r="J96">
+        <v>-1.1923999999999999</v>
+      </c>
+      <c r="M96" s="37">
+        <v>42735</v>
+      </c>
+      <c r="N96">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="37">
+        <v>42825</v>
+      </c>
+      <c r="B97">
+        <v>2.7462571419323498</v>
+      </c>
+      <c r="E97" s="37">
+        <v>42825</v>
+      </c>
+      <c r="F97">
+        <v>2.6720874006989299</v>
+      </c>
+      <c r="I97" s="51">
+        <v>42460</v>
+      </c>
+      <c r="J97">
+        <v>-1.4723999999999999</v>
+      </c>
+      <c r="M97" s="37">
+        <v>42825</v>
+      </c>
+      <c r="N97">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="37">
+        <v>42916</v>
+      </c>
+      <c r="B98">
+        <v>2.5307454079787699</v>
+      </c>
+      <c r="E98" s="37">
+        <v>42916</v>
+      </c>
+      <c r="F98">
+        <v>2.5570500473376598</v>
+      </c>
+      <c r="I98" s="51">
+        <v>42551</v>
+      </c>
+      <c r="J98">
+        <v>-1.5553999999999999</v>
+      </c>
+      <c r="M98" s="37">
+        <v>42916</v>
+      </c>
+      <c r="N98">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="37">
+        <v>43008</v>
+      </c>
+      <c r="B99">
+        <v>2.50176791519652</v>
+      </c>
+      <c r="E99" s="37">
+        <v>43008</v>
+      </c>
+      <c r="F99">
+        <v>2.4426910507514301</v>
+      </c>
+      <c r="I99" s="51">
+        <v>42643</v>
+      </c>
+      <c r="J99">
+        <v>-1.6189</v>
+      </c>
+      <c r="M99" s="37">
+        <v>43008</v>
+      </c>
+      <c r="N99">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="37">
+        <v>43100</v>
+      </c>
+      <c r="B100">
+        <v>2.3218847346813098</v>
+      </c>
+      <c r="E100" s="37">
+        <v>43100</v>
+      </c>
+      <c r="F100">
+        <v>2.31634125122513</v>
+      </c>
+      <c r="I100" s="51">
+        <v>42735</v>
+      </c>
+      <c r="J100">
+        <v>-1.7115</v>
+      </c>
+      <c r="M100" s="37">
+        <v>43100</v>
+      </c>
+      <c r="N100">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="37">
+        <v>43190</v>
+      </c>
+      <c r="B101">
+        <v>2.1870391394929598</v>
+      </c>
+      <c r="E101" s="37">
+        <v>43190</v>
+      </c>
+      <c r="F101">
+        <v>2.1870391394929598</v>
+      </c>
+      <c r="I101" s="51">
+        <v>42825</v>
+      </c>
+      <c r="J101">
+        <v>-1.7807999999999999</v>
+      </c>
+      <c r="M101" s="37">
+        <v>43190</v>
+      </c>
+      <c r="N101">
+        <v>0.48092000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="37">
+        <v>43281</v>
+      </c>
+      <c r="B102">
+        <v>2.06369865441782</v>
+      </c>
+      <c r="E102" s="37">
+        <v>43281</v>
+      </c>
+      <c r="F102">
+        <v>2.06369865441782</v>
+      </c>
+      <c r="I102" s="51">
+        <v>42916</v>
+      </c>
+      <c r="J102">
+        <v>-1.8707</v>
+      </c>
+      <c r="M102" s="37">
+        <v>43281</v>
+      </c>
+      <c r="N102">
+        <v>0.59199000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="37">
+        <v>43373</v>
+      </c>
+      <c r="B103">
+        <v>1.9532826681120301</v>
+      </c>
+      <c r="E103" s="37">
+        <v>43373</v>
+      </c>
+      <c r="F103">
+        <v>1.9532826681120301</v>
+      </c>
+      <c r="I103" s="51">
+        <v>43008</v>
+      </c>
+      <c r="J103">
+        <v>-1.869</v>
+      </c>
+      <c r="M103" s="37">
+        <v>43373</v>
+      </c>
+      <c r="N103">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="37">
+        <v>43465</v>
+      </c>
+      <c r="B104">
+        <v>1.86143495955962</v>
+      </c>
+      <c r="E104" s="37">
+        <v>43465</v>
+      </c>
+      <c r="F104">
+        <v>1.86143495955962</v>
+      </c>
+      <c r="I104" s="51">
+        <v>43100</v>
+      </c>
+      <c r="J104">
+        <v>-1.7692000000000001</v>
+      </c>
+      <c r="M104" s="37">
+        <v>43465</v>
+      </c>
+      <c r="N104">
+        <v>0.88383</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I105" s="51">
+        <v>43190</v>
+      </c>
+      <c r="J105">
+        <v>-1.6681999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I106" s="51">
+        <v>43281</v>
+      </c>
+      <c r="J106">
+        <v>-1.5829</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I107" s="51">
+        <v>43373</v>
+      </c>
+      <c r="J107">
+        <v>-1.4781</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I108" s="51">
+        <v>43465</v>
+      </c>
+      <c r="J108">
+        <v>-1.3680000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>